--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1953956666666667</v>
+        <v>3.698400333333333</v>
       </c>
       <c r="H2">
-        <v>0.586187</v>
+        <v>11.095201</v>
       </c>
       <c r="I2">
-        <v>0.001304575379516338</v>
+        <v>0.01460277526461191</v>
       </c>
       <c r="J2">
-        <v>0.001304575379516338</v>
+        <v>0.01460277526461191</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.727051</v>
+        <v>2.801728333333333</v>
       </c>
       <c r="N2">
-        <v>5.181153</v>
+        <v>8.405184999999999</v>
       </c>
       <c r="O2">
-        <v>0.04119512063174863</v>
+        <v>0.05711011770608418</v>
       </c>
       <c r="P2">
-        <v>0.04119512063174863</v>
+        <v>0.05711011770608417</v>
       </c>
       <c r="Q2">
-        <v>0.3374582815123334</v>
+        <v>10.36191300190944</v>
       </c>
       <c r="R2">
-        <v>3.037124533611</v>
+        <v>93.25721701718498</v>
       </c>
       <c r="S2">
-        <v>5.374214013238478E-05</v>
+        <v>0.0008339662141974805</v>
       </c>
       <c r="T2">
-        <v>5.374214013238479E-05</v>
+        <v>0.0008339662141974803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1953956666666667</v>
+        <v>3.698400333333333</v>
       </c>
       <c r="H3">
-        <v>0.586187</v>
+        <v>11.095201</v>
       </c>
       <c r="I3">
-        <v>0.001304575379516338</v>
+        <v>0.01460277526461191</v>
       </c>
       <c r="J3">
-        <v>0.001304575379516338</v>
+        <v>0.01460277526461191</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.552332</v>
+        <v>1.469855</v>
       </c>
       <c r="N3">
-        <v>4.656995999999999</v>
+        <v>4.409565</v>
       </c>
       <c r="O3">
-        <v>0.03702757127642646</v>
+        <v>0.02996136030112711</v>
       </c>
       <c r="P3">
-        <v>0.03702757127642647</v>
+        <v>0.02996136030112711</v>
       </c>
       <c r="Q3">
-        <v>0.303318946028</v>
+        <v>5.436112221951666</v>
       </c>
       <c r="R3">
-        <v>2.729870514252</v>
+        <v>48.92500999756499</v>
       </c>
       <c r="S3">
-        <v>4.83052578505123E-05</v>
+        <v>0.0004375190110994241</v>
       </c>
       <c r="T3">
-        <v>4.830525785051231E-05</v>
+        <v>0.000437519011099424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1953956666666667</v>
+        <v>3.698400333333333</v>
       </c>
       <c r="H4">
-        <v>0.586187</v>
+        <v>11.095201</v>
       </c>
       <c r="I4">
-        <v>0.001304575379516338</v>
+        <v>0.01460277526461191</v>
       </c>
       <c r="J4">
-        <v>0.001304575379516338</v>
+        <v>0.01460277526461191</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.34288533333334</v>
+        <v>44.27998366666666</v>
       </c>
       <c r="N4">
-        <v>109.028656</v>
+        <v>132.839951</v>
       </c>
       <c r="O4">
-        <v>0.8668820697318577</v>
+        <v>0.9025982459256344</v>
       </c>
       <c r="P4">
-        <v>0.8668820697318579</v>
+        <v>0.9025982459256343</v>
       </c>
       <c r="Q4">
-        <v>7.101242308296889</v>
+        <v>163.7651063527945</v>
       </c>
       <c r="R4">
-        <v>63.911180774672</v>
+        <v>1473.885957175151</v>
       </c>
       <c r="S4">
-        <v>0.001130913005116346</v>
+        <v>0.01318043933948495</v>
       </c>
       <c r="T4">
-        <v>0.001130913005116347</v>
+        <v>0.01318043933948495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1953956666666667</v>
+        <v>3.698400333333333</v>
       </c>
       <c r="H5">
-        <v>0.586187</v>
+        <v>11.095201</v>
       </c>
       <c r="I5">
-        <v>0.001304575379516338</v>
+        <v>0.01460277526461191</v>
       </c>
       <c r="J5">
-        <v>0.001304575379516338</v>
+        <v>0.01460277526461191</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.301410333333333</v>
+        <v>0.5067863333333333</v>
       </c>
       <c r="N5">
-        <v>6.904230999999999</v>
+        <v>1.520359</v>
       </c>
       <c r="O5">
-        <v>0.05489523835996706</v>
+        <v>0.01033027606715431</v>
       </c>
       <c r="P5">
-        <v>0.05489523835996707</v>
+        <v>0.01033027606715431</v>
       </c>
       <c r="Q5">
-        <v>0.4496856063552221</v>
+        <v>1.874298744128778</v>
       </c>
       <c r="R5">
-        <v>4.047170457197</v>
+        <v>16.868688697159</v>
       </c>
       <c r="S5">
-        <v>7.161497641709385E-05</v>
+        <v>0.0001508506998300534</v>
       </c>
       <c r="T5">
-        <v>7.161497641709386E-05</v>
+        <v>0.0001508506998300533</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>309.397949</v>
       </c>
       <c r="I6">
-        <v>0.6885736919076191</v>
+        <v>0.4072092715200794</v>
       </c>
       <c r="J6">
-        <v>0.6885736919076191</v>
+        <v>0.4072092715200794</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.727051</v>
+        <v>2.801728333333333</v>
       </c>
       <c r="N6">
-        <v>5.181153</v>
+        <v>8.405184999999999</v>
       </c>
       <c r="O6">
-        <v>0.04119512063174863</v>
+        <v>0.05711011770608418</v>
       </c>
       <c r="P6">
-        <v>0.04119512063174863</v>
+        <v>0.05711011770608417</v>
       </c>
       <c r="Q6">
-        <v>178.1153457394663</v>
+        <v>288.9496666628405</v>
       </c>
       <c r="R6">
-        <v>1603.038111655197</v>
+        <v>2600.546999965565</v>
       </c>
       <c r="S6">
-        <v>0.02836587630198288</v>
+        <v>0.02325576942752052</v>
       </c>
       <c r="T6">
-        <v>0.02836587630198288</v>
+        <v>0.02325576942752052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>309.397949</v>
       </c>
       <c r="I7">
-        <v>0.6885736919076191</v>
+        <v>0.4072092715200794</v>
       </c>
       <c r="J7">
-        <v>0.6885736919076191</v>
+        <v>0.4072092715200794</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.552332</v>
+        <v>1.469855</v>
       </c>
       <c r="N7">
-        <v>4.656995999999999</v>
+        <v>4.409565</v>
       </c>
       <c r="O7">
-        <v>0.03702757127642646</v>
+        <v>0.02996136030112711</v>
       </c>
       <c r="P7">
-        <v>0.03702757127642647</v>
+        <v>0.02996136030112711</v>
       </c>
       <c r="Q7">
-        <v>160.096112322356</v>
+        <v>151.5900407757983</v>
       </c>
       <c r="R7">
-        <v>1440.865010901204</v>
+        <v>1364.310366982185</v>
       </c>
       <c r="S7">
-        <v>0.02549621145618148</v>
+        <v>0.0122005437019726</v>
       </c>
       <c r="T7">
-        <v>0.02549621145618149</v>
+        <v>0.01220054370197259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>309.397949</v>
       </c>
       <c r="I8">
-        <v>0.6885736919076191</v>
+        <v>0.4072092715200794</v>
       </c>
       <c r="J8">
-        <v>0.6885736919076191</v>
+        <v>0.4072092715200794</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.34288533333334</v>
+        <v>44.27998366666666</v>
       </c>
       <c r="N8">
-        <v>109.028656</v>
+        <v>132.839951</v>
       </c>
       <c r="O8">
-        <v>0.8668820697318577</v>
+        <v>0.9025982459256344</v>
       </c>
       <c r="P8">
-        <v>0.8668820697318579</v>
+        <v>0.9025982459256343</v>
       </c>
       <c r="Q8">
-        <v>3748.138060958505</v>
+        <v>4566.712042740055</v>
       </c>
       <c r="R8">
-        <v>33733.24254862654</v>
+        <v>41100.40838466049</v>
       </c>
       <c r="S8">
-        <v>0.5969121872037834</v>
+        <v>0.367546374198679</v>
       </c>
       <c r="T8">
-        <v>0.5969121872037835</v>
+        <v>0.367546374198679</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>309.397949</v>
       </c>
       <c r="I9">
-        <v>0.6885736919076191</v>
+        <v>0.4072092715200794</v>
       </c>
       <c r="J9">
-        <v>0.6885736919076191</v>
+        <v>0.4072092715200794</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.301410333333333</v>
+        <v>0.5067863333333333</v>
       </c>
       <c r="N9">
-        <v>6.904230999999999</v>
+        <v>1.520359</v>
       </c>
       <c r="O9">
-        <v>0.05489523835996706</v>
+        <v>0.01033027606715431</v>
       </c>
       <c r="P9">
-        <v>0.05489523835996707</v>
+        <v>0.01033027606715431</v>
       </c>
       <c r="Q9">
-        <v>237.3505456469132</v>
+        <v>52.26621737152122</v>
       </c>
       <c r="R9">
-        <v>2136.154910822219</v>
+        <v>470.395956343691</v>
       </c>
       <c r="S9">
-        <v>0.03779941694567127</v>
+        <v>0.004206584191907219</v>
       </c>
       <c r="T9">
-        <v>0.03779941694567128</v>
+        <v>0.004206584191907218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.40146633333333</v>
+        <v>19.93824633333333</v>
       </c>
       <c r="H10">
-        <v>31.204399</v>
+        <v>59.814739</v>
       </c>
       <c r="I10">
-        <v>0.069446252932945</v>
+        <v>0.07872423321834521</v>
       </c>
       <c r="J10">
-        <v>0.069446252932945</v>
+        <v>0.07872423321834522</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.727051</v>
+        <v>2.801728333333333</v>
       </c>
       <c r="N10">
-        <v>5.181153</v>
+        <v>8.405184999999999</v>
       </c>
       <c r="O10">
-        <v>0.04119512063174863</v>
+        <v>0.05711011770608418</v>
       </c>
       <c r="P10">
-        <v>0.04119512063174863</v>
+        <v>0.05711011770608417</v>
       </c>
       <c r="Q10">
-        <v>17.96386283244967</v>
+        <v>55.86154966907944</v>
       </c>
       <c r="R10">
-        <v>161.674765492047</v>
+        <v>502.7539470217149</v>
       </c>
       <c r="S10">
-        <v>0.002860846766995596</v>
+        <v>0.004495950225420917</v>
       </c>
       <c r="T10">
-        <v>0.002860846766995597</v>
+        <v>0.004495950225420917</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.40146633333333</v>
+        <v>19.93824633333333</v>
       </c>
       <c r="H11">
-        <v>31.204399</v>
+        <v>59.814739</v>
       </c>
       <c r="I11">
-        <v>0.069446252932945</v>
+        <v>0.07872423321834521</v>
       </c>
       <c r="J11">
-        <v>0.069446252932945</v>
+        <v>0.07872423321834522</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.552332</v>
+        <v>1.469855</v>
       </c>
       <c r="N11">
-        <v>4.656995999999999</v>
+        <v>4.409565</v>
       </c>
       <c r="O11">
-        <v>0.03702757127642646</v>
+        <v>0.02996136030112711</v>
       </c>
       <c r="P11">
-        <v>0.03702757127642647</v>
+        <v>0.02996136030112711</v>
       </c>
       <c r="Q11">
-        <v>16.146529036156</v>
+        <v>29.30633106428166</v>
       </c>
       <c r="R11">
-        <v>145.318761325404</v>
+        <v>263.756979578535</v>
       </c>
       <c r="S11">
-        <v>0.002571426080355361</v>
+        <v>0.002358685115884801</v>
       </c>
       <c r="T11">
-        <v>0.002571426080355362</v>
+        <v>0.0023586851158848</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.40146633333333</v>
+        <v>19.93824633333333</v>
       </c>
       <c r="H12">
-        <v>31.204399</v>
+        <v>59.814739</v>
       </c>
       <c r="I12">
-        <v>0.069446252932945</v>
+        <v>0.07872423321834521</v>
       </c>
       <c r="J12">
-        <v>0.069446252932945</v>
+        <v>0.07872423321834522</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.34288533333334</v>
+        <v>44.27998366666666</v>
       </c>
       <c r="N12">
-        <v>109.028656</v>
+        <v>132.839951</v>
       </c>
       <c r="O12">
-        <v>0.8668820697318577</v>
+        <v>0.9025982459256344</v>
       </c>
       <c r="P12">
-        <v>0.8668820697318579</v>
+        <v>0.9025982459256343</v>
       </c>
       <c r="Q12">
-        <v>378.0192982508605</v>
+        <v>882.8652219819763</v>
       </c>
       <c r="R12">
-        <v>3402.173684257744</v>
+        <v>7945.786997837788</v>
       </c>
       <c r="S12">
-        <v>0.06020171147763345</v>
+        <v>0.07105635481471895</v>
       </c>
       <c r="T12">
-        <v>0.06020171147763347</v>
+        <v>0.07105635481471895</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.40146633333333</v>
+        <v>19.93824633333333</v>
       </c>
       <c r="H13">
-        <v>31.204399</v>
+        <v>59.814739</v>
       </c>
       <c r="I13">
-        <v>0.069446252932945</v>
+        <v>0.07872423321834521</v>
       </c>
       <c r="J13">
-        <v>0.069446252932945</v>
+        <v>0.07872423321834522</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.301410333333333</v>
+        <v>0.5067863333333333</v>
       </c>
       <c r="N13">
-        <v>6.904230999999999</v>
+        <v>1.520359</v>
       </c>
       <c r="O13">
-        <v>0.05489523835996706</v>
+        <v>0.01033027606715431</v>
       </c>
       <c r="P13">
-        <v>0.05489523835996707</v>
+        <v>0.01033027606715431</v>
       </c>
       <c r="Q13">
-        <v>23.93804210135211</v>
+        <v>10.10443075236678</v>
       </c>
       <c r="R13">
-        <v>215.442378912169</v>
+        <v>90.939876771301</v>
       </c>
       <c r="S13">
-        <v>0.003812268607960577</v>
+        <v>0.0008132430623205461</v>
       </c>
       <c r="T13">
-        <v>0.003812268607960578</v>
+        <v>0.0008132430623205461</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.78236733333334</v>
+        <v>32.263448</v>
       </c>
       <c r="H14">
-        <v>65.34710200000001</v>
+        <v>96.790344</v>
       </c>
       <c r="I14">
-        <v>0.1454317826767616</v>
+        <v>0.1273890974319868</v>
       </c>
       <c r="J14">
-        <v>0.1454317826767616</v>
+        <v>0.1273890974319868</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.727051</v>
+        <v>2.801728333333333</v>
       </c>
       <c r="N14">
-        <v>5.181153</v>
+        <v>8.405184999999999</v>
       </c>
       <c r="O14">
-        <v>0.04119512063174863</v>
+        <v>0.05711011770608418</v>
       </c>
       <c r="P14">
-        <v>0.04119512063174863</v>
+        <v>0.05711011770608417</v>
       </c>
       <c r="Q14">
-        <v>37.61925928540067</v>
+        <v>90.39341639262668</v>
       </c>
       <c r="R14">
-        <v>338.573333568606</v>
+        <v>813.54074753364</v>
       </c>
       <c r="S14">
-        <v>0.005991079831059444</v>
+        <v>0.007275206348812593</v>
       </c>
       <c r="T14">
-        <v>0.005991079831059444</v>
+        <v>0.007275206348812591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.78236733333334</v>
+        <v>32.263448</v>
       </c>
       <c r="H15">
-        <v>65.34710200000001</v>
+        <v>96.790344</v>
       </c>
       <c r="I15">
-        <v>0.1454317826767616</v>
+        <v>0.1273890974319868</v>
       </c>
       <c r="J15">
-        <v>0.1454317826767616</v>
+        <v>0.1273890974319868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.552332</v>
+        <v>1.469855</v>
       </c>
       <c r="N15">
-        <v>4.656995999999999</v>
+        <v>4.409565</v>
       </c>
       <c r="O15">
-        <v>0.03702757127642646</v>
+        <v>0.02996136030112711</v>
       </c>
       <c r="P15">
-        <v>0.03702757127642647</v>
+        <v>0.02996136030112711</v>
       </c>
       <c r="Q15">
-        <v>33.813465847288</v>
+        <v>47.42259036004</v>
       </c>
       <c r="R15">
-        <v>304.321192625592</v>
+        <v>426.80331324036</v>
       </c>
       <c r="S15">
-        <v>0.005384985698921553</v>
+        <v>0.003816750646595144</v>
       </c>
       <c r="T15">
-        <v>0.005384985698921554</v>
+        <v>0.003816750646595143</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.78236733333334</v>
+        <v>32.263448</v>
       </c>
       <c r="H16">
-        <v>65.34710200000001</v>
+        <v>96.790344</v>
       </c>
       <c r="I16">
-        <v>0.1454317826767616</v>
+        <v>0.1273890974319868</v>
       </c>
       <c r="J16">
-        <v>0.1454317826767616</v>
+        <v>0.1273890974319868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.34288533333334</v>
+        <v>44.27998366666666</v>
       </c>
       <c r="N16">
-        <v>109.028656</v>
+        <v>132.839951</v>
       </c>
       <c r="O16">
-        <v>0.8668820697318577</v>
+        <v>0.9025982459256344</v>
       </c>
       <c r="P16">
-        <v>0.8668820697318579</v>
+        <v>0.9025982459256343</v>
       </c>
       <c r="Q16">
-        <v>791.6340782838793</v>
+        <v>1428.624950470349</v>
       </c>
       <c r="R16">
-        <v>7124.706704554913</v>
+        <v>12857.62455423314</v>
       </c>
       <c r="S16">
-        <v>0.1260722047716248</v>
+        <v>0.114981175892161</v>
       </c>
       <c r="T16">
-        <v>0.1260722047716248</v>
+        <v>0.114981175892161</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.78236733333334</v>
+        <v>32.263448</v>
       </c>
       <c r="H17">
-        <v>65.34710200000001</v>
+        <v>96.790344</v>
       </c>
       <c r="I17">
-        <v>0.1454317826767616</v>
+        <v>0.1273890974319868</v>
       </c>
       <c r="J17">
-        <v>0.1454317826767616</v>
+        <v>0.1273890974319868</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.301410333333333</v>
+        <v>0.5067863333333333</v>
       </c>
       <c r="N17">
-        <v>6.904230999999999</v>
+        <v>1.520359</v>
       </c>
       <c r="O17">
-        <v>0.05489523835996706</v>
+        <v>0.01033027606715431</v>
       </c>
       <c r="P17">
-        <v>0.05489523835996707</v>
+        <v>0.01033027606715431</v>
       </c>
       <c r="Q17">
-        <v>50.13016526539578</v>
+        <v>16.35067451261067</v>
       </c>
       <c r="R17">
-        <v>451.171487388562</v>
+        <v>147.156070613496</v>
       </c>
       <c r="S17">
-        <v>0.007983512375155757</v>
+        <v>0.001315964544418043</v>
       </c>
       <c r="T17">
-        <v>0.007983512375155755</v>
+        <v>0.001315964544418042</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.54666866666667</v>
+        <v>15.70300266666667</v>
       </c>
       <c r="H18">
-        <v>37.640006</v>
+        <v>47.109008</v>
       </c>
       <c r="I18">
-        <v>0.08376887428831965</v>
+        <v>0.06200178408329911</v>
       </c>
       <c r="J18">
-        <v>0.08376887428831964</v>
+        <v>0.06200178408329911</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.727051</v>
+        <v>2.801728333333333</v>
       </c>
       <c r="N18">
-        <v>5.181153</v>
+        <v>8.405184999999999</v>
       </c>
       <c r="O18">
-        <v>0.04119512063174863</v>
+        <v>0.05711011770608418</v>
       </c>
       <c r="P18">
-        <v>0.04119512063174863</v>
+        <v>0.05711011770608417</v>
       </c>
       <c r="Q18">
-        <v>21.66873666743534</v>
+        <v>43.99554748960889</v>
       </c>
       <c r="R18">
-        <v>195.018630006918</v>
+        <v>395.95992740648</v>
       </c>
       <c r="S18">
-        <v>0.003450868881493114</v>
+        <v>0.003540929186984429</v>
       </c>
       <c r="T18">
-        <v>0.003450868881493114</v>
+        <v>0.003540929186984428</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.54666866666667</v>
+        <v>15.70300266666667</v>
       </c>
       <c r="H19">
-        <v>37.640006</v>
+        <v>47.109008</v>
       </c>
       <c r="I19">
-        <v>0.08376887428831965</v>
+        <v>0.06200178408329911</v>
       </c>
       <c r="J19">
-        <v>0.08376887428831964</v>
+        <v>0.06200178408329911</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.552332</v>
+        <v>1.469855</v>
       </c>
       <c r="N19">
-        <v>4.656995999999999</v>
+        <v>4.409565</v>
       </c>
       <c r="O19">
-        <v>0.03702757127642646</v>
+        <v>0.02996136030112711</v>
       </c>
       <c r="P19">
-        <v>0.03702757127642647</v>
+        <v>0.02996136030112711</v>
       </c>
       <c r="Q19">
-        <v>19.476595264664</v>
+        <v>23.08113698461333</v>
       </c>
       <c r="R19">
-        <v>175.289357381976</v>
+        <v>207.73023286152</v>
       </c>
       <c r="S19">
-        <v>0.003101757963456764</v>
+        <v>0.001857657792232413</v>
       </c>
       <c r="T19">
-        <v>0.003101757963456765</v>
+        <v>0.001857657792232412</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.54666866666667</v>
+        <v>15.70300266666667</v>
       </c>
       <c r="H20">
-        <v>37.640006</v>
+        <v>47.109008</v>
       </c>
       <c r="I20">
-        <v>0.08376887428831965</v>
+        <v>0.06200178408329911</v>
       </c>
       <c r="J20">
-        <v>0.08376887428831964</v>
+        <v>0.06200178408329911</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.34288533333334</v>
+        <v>44.27998366666666</v>
       </c>
       <c r="N20">
-        <v>109.028656</v>
+        <v>132.839951</v>
       </c>
       <c r="O20">
-        <v>0.8668820697318577</v>
+        <v>0.9025982459256344</v>
       </c>
       <c r="P20">
-        <v>0.8668820697318579</v>
+        <v>0.9025982459256343</v>
       </c>
       <c r="Q20">
-        <v>455.982140667993</v>
+        <v>695.3287015976231</v>
       </c>
       <c r="R20">
-        <v>4103.839266011936</v>
+        <v>6257.958314378608</v>
       </c>
       <c r="S20">
-        <v>0.07261773512216634</v>
+        <v>0.0559627015578457</v>
       </c>
       <c r="T20">
-        <v>0.07261773512216635</v>
+        <v>0.0559627015578457</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.54666866666667</v>
+        <v>15.70300266666667</v>
       </c>
       <c r="H21">
-        <v>37.640006</v>
+        <v>47.109008</v>
       </c>
       <c r="I21">
-        <v>0.08376887428831965</v>
+        <v>0.06200178408329911</v>
       </c>
       <c r="J21">
-        <v>0.08376887428831964</v>
+        <v>0.06200178408329911</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.301410333333333</v>
+        <v>0.5067863333333333</v>
       </c>
       <c r="N21">
-        <v>6.904230999999999</v>
+        <v>1.520359</v>
       </c>
       <c r="O21">
-        <v>0.05489523835996706</v>
+        <v>0.01033027606715431</v>
       </c>
       <c r="P21">
-        <v>0.05489523835996707</v>
+        <v>0.01033027606715431</v>
       </c>
       <c r="Q21">
-        <v>28.87503291837622</v>
+        <v>7.958067143763556</v>
       </c>
       <c r="R21">
-        <v>259.875296265386</v>
+        <v>71.622604293872</v>
       </c>
       <c r="S21">
-        <v>0.004598512321203423</v>
+        <v>0.0006404955462365741</v>
       </c>
       <c r="T21">
-        <v>0.004598512321203423</v>
+        <v>0.000640495546236574</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.718667</v>
+        <v>78.53120166666668</v>
       </c>
       <c r="H22">
-        <v>5.156001</v>
+        <v>235.593605</v>
       </c>
       <c r="I22">
-        <v>0.0114748228148383</v>
+        <v>0.3100728384816776</v>
       </c>
       <c r="J22">
-        <v>0.0114748228148383</v>
+        <v>0.3100728384816777</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.727051</v>
+        <v>2.801728333333333</v>
       </c>
       <c r="N22">
-        <v>5.181153</v>
+        <v>8.405184999999999</v>
       </c>
       <c r="O22">
-        <v>0.04119512063174863</v>
+        <v>0.05711011770608418</v>
       </c>
       <c r="P22">
-        <v>0.04119512063174863</v>
+        <v>0.05711011770608417</v>
       </c>
       <c r="Q22">
-        <v>2.968225561017</v>
+        <v>220.0230927602139</v>
       </c>
       <c r="R22">
-        <v>26.714030049153</v>
+        <v>1980.207834841925</v>
       </c>
       <c r="S22">
-        <v>0.000472706710085205</v>
+        <v>0.01770829630314824</v>
       </c>
       <c r="T22">
-        <v>0.000472706710085205</v>
+        <v>0.01770829630314823</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.718667</v>
+        <v>78.53120166666668</v>
       </c>
       <c r="H23">
-        <v>5.156001</v>
+        <v>235.593605</v>
       </c>
       <c r="I23">
-        <v>0.0114748228148383</v>
+        <v>0.3100728384816776</v>
       </c>
       <c r="J23">
-        <v>0.0114748228148383</v>
+        <v>0.3100728384816777</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.552332</v>
+        <v>1.469855</v>
       </c>
       <c r="N23">
-        <v>4.656995999999999</v>
+        <v>4.409565</v>
       </c>
       <c r="O23">
-        <v>0.03702757127642646</v>
+        <v>0.02996136030112711</v>
       </c>
       <c r="P23">
-        <v>0.03702757127642647</v>
+        <v>0.02996136030112711</v>
       </c>
       <c r="Q23">
-        <v>2.667941781444</v>
+        <v>115.4294794257583</v>
       </c>
       <c r="R23">
-        <v>24.011476032996</v>
+        <v>1038.865314831825</v>
       </c>
       <c r="S23">
-        <v>0.0004248848196607895</v>
+        <v>0.009290204033342735</v>
       </c>
       <c r="T23">
-        <v>0.0004248848196607897</v>
+        <v>0.009290204033342735</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.718667</v>
+        <v>78.53120166666668</v>
       </c>
       <c r="H24">
-        <v>5.156001</v>
+        <v>235.593605</v>
       </c>
       <c r="I24">
-        <v>0.0114748228148383</v>
+        <v>0.3100728384816776</v>
       </c>
       <c r="J24">
-        <v>0.0114748228148383</v>
+        <v>0.3100728384816777</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>36.34288533333334</v>
+        <v>44.27998366666666</v>
       </c>
       <c r="N24">
-        <v>109.028656</v>
+        <v>132.839951</v>
       </c>
       <c r="O24">
-        <v>0.8668820697318577</v>
+        <v>0.9025982459256344</v>
       </c>
       <c r="P24">
-        <v>0.8668820697318579</v>
+        <v>0.9025982459256343</v>
       </c>
       <c r="Q24">
-        <v>62.461317707184</v>
+        <v>3477.360327123706</v>
       </c>
       <c r="R24">
-        <v>562.1518593646559</v>
+        <v>31296.24294411335</v>
       </c>
       <c r="S24">
-        <v>0.009947318151533364</v>
+        <v>0.2798712001227447</v>
       </c>
       <c r="T24">
-        <v>0.009947318151533366</v>
+        <v>0.2798712001227448</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.718667</v>
+        <v>78.53120166666668</v>
       </c>
       <c r="H25">
-        <v>5.156001</v>
+        <v>235.593605</v>
       </c>
       <c r="I25">
-        <v>0.0114748228148383</v>
+        <v>0.3100728384816776</v>
       </c>
       <c r="J25">
-        <v>0.0114748228148383</v>
+        <v>0.3100728384816777</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.301410333333333</v>
+        <v>0.5067863333333333</v>
       </c>
       <c r="N25">
-        <v>6.904230999999999</v>
+        <v>1.520359</v>
       </c>
       <c r="O25">
-        <v>0.05489523835996706</v>
+        <v>0.01033027606715431</v>
       </c>
       <c r="P25">
-        <v>0.05489523835996707</v>
+        <v>0.01033027606715431</v>
       </c>
       <c r="Q25">
-        <v>3.955357993358999</v>
+        <v>39.79853974491056</v>
       </c>
       <c r="R25">
-        <v>35.59822194023099</v>
+        <v>358.1868577041951</v>
       </c>
       <c r="S25">
-        <v>0.0006299131335589364</v>
+        <v>0.003203138022441879</v>
       </c>
       <c r="T25">
-        <v>0.0006299131335589365</v>
+        <v>0.003203138022441879</v>
       </c>
     </row>
   </sheetData>
